--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="J32" t="s">
         <v>71</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33">
-        <v>60001</v>
+        <v>61001</v>
       </c>
       <c r="J33" t="s">
         <v>74</v>

--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -569,86 +569,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益  50000   成长200s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 150000   成长220s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 500000   成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益  50000   成长200s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 150000   成长220s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 500000   成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益  50000   成长200s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 150000   成长220s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 500000   成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 150000   成长220s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益  50000   成长200s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 500000   成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收集满10个可获得超级战舰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -657,11 +577,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战舰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可在每场战斗中使用一次，具有超高伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际战舰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长200s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 150000   \n成长220s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 300000   \n成长240s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 500000   \n成长240s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益5000000   \n成长240s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长200s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 150000   \n成长220s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 300000   \n成长240s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 500000   \n成长240s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益5000000   \n成长240s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长200s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 150000   \n成长220s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 300000   \n成长240s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 500000   \n成长240s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益5000000   \n成长240s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长200s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 150000   \n成长220s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 300000   \n成长240s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 500000   \n成长240s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益5000000   \n成长240s 攻+1防+1血+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -1385,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
@@ -1508,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
@@ -1531,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -1554,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
@@ -1600,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
@@ -1776,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -1818,10 +1818,10 @@
         <v>61000</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -1829,10 +1829,10 @@
         <v>61001</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>comment</t>
   </si>
@@ -553,22 +553,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随机获得2-5级种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机获得3-5级种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机获得2-5级种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机获得3-5级种子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收集满10个可获得超级战舰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -662,6 +646,22 @@
   </si>
   <si>
     <t>收益5000000   \n成长240s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得2-5级\n种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得3-5级\n种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金领主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关攻占第一个星球获得的称号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1134,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -1298,6 +1298,9 @@
       <c r="B8">
         <v>10005</v>
       </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
       <c r="D8">
         <v>5000000</v>
       </c>
@@ -1307,8 +1310,11 @@
       <c r="F8">
         <v>3</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1322,7 +1328,7 @@
         <v>200000</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
@@ -1339,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
@@ -1362,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -1385,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -1408,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1434,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -1444,6 +1450,9 @@
       <c r="B15">
         <v>20005</v>
       </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
       <c r="D15">
         <v>5000000</v>
       </c>
@@ -1453,8 +1462,11 @@
       <c r="G15">
         <v>3</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
@@ -1468,7 +1480,7 @@
         <v>200000</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
@@ -1485,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
         <v>42</v>
@@ -1508,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
@@ -1531,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -1554,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -1580,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
@@ -1590,6 +1602,9 @@
       <c r="B22">
         <v>30005</v>
       </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
       <c r="D22">
         <v>5000000</v>
       </c>
@@ -1599,8 +1614,11 @@
       <c r="H22">
         <v>9</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
@@ -1614,7 +1632,7 @@
         <v>200000</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -1631,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -1660,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -1689,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -1718,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -1750,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
@@ -1760,6 +1778,9 @@
       <c r="B29">
         <v>40005</v>
       </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
       <c r="D29">
         <v>5000000</v>
       </c>
@@ -1775,8 +1796,11 @@
       <c r="H29">
         <v>3</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -1790,7 +1814,7 @@
         <v>200000</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
@@ -1807,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
@@ -1818,10 +1842,10 @@
         <v>61000</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -1829,10 +1853,21 @@
         <v>61001</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>80001</v>
+      </c>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -581,14 +581,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 500000   \n成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   \n成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益  50000   \n成长200s   防御+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -601,14 +593,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 500000   \n成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   \n成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益  50000   \n成长200s   血量+9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -621,14 +605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 500000   \n成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   \n成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益  50000   \n成长200s 攻+1防+1血+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,14 +617,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 500000   \n成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益5000000   \n成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>随机获得2-5级\n种子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -662,6 +630,38 @@
   </si>
   <si>
     <t>通关攻占第一个星球获得的称号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s   攻击+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s   防御+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s   血量+27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s 攻+3防+3血+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s 攻+30防+30血+90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s   血量+270</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s   防御+90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s   攻击+90</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1276,19 +1276,19 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -1302,19 +1302,19 @@
         <v>200</v>
       </c>
       <c r="D8">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1325,10 +1325,10 @@
         <v>18001</v>
       </c>
       <c r="C9">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
@@ -1368,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1428,19 +1428,19 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -1454,19 +1454,19 @@
         <v>200</v>
       </c>
       <c r="D15">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
@@ -1477,10 +1477,10 @@
         <v>28001</v>
       </c>
       <c r="C16">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
         <v>42</v>
@@ -1520,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -1580,19 +1580,19 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
@@ -1606,19 +1606,19 @@
         <v>200</v>
       </c>
       <c r="D22">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
@@ -1629,10 +1629,10 @@
         <v>38001</v>
       </c>
       <c r="C23">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -1750,25 +1750,25 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
@@ -1782,25 +1782,25 @@
         <v>200</v>
       </c>
       <c r="D29">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -1811,10 +1811,10 @@
         <v>48001</v>
       </c>
       <c r="C30">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
@@ -1864,10 +1864,10 @@
         <v>80001</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -553,10 +553,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收集满10个可获得超级战舰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>战舰零件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -649,10 +645,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 20000000 \n成长240s 攻+30防+30血+90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益 20000000 \n成长240s   血量+270</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -662,6 +654,14 @@
   </si>
   <si>
     <t>收益 20000000 \n成长240s   攻击+90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s 攻30防30血90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集满100个可获得超级战舰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1328,7 +1328,7 @@
         <v>300000</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
@@ -1368,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
@@ -1480,7 +1480,7 @@
         <v>300000</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
         <v>42</v>
@@ -1520,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
@@ -1632,7 +1632,7 @@
         <v>300000</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -1814,7 +1814,7 @@
         <v>300000</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
@@ -1841,11 +1841,17 @@
       <c r="B32">
         <v>61000</v>
       </c>
+      <c r="C32">
+        <v>600</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" t="s">
         <v>47</v>
-      </c>
-      <c r="K32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -1853,10 +1859,10 @@
         <v>61001</v>
       </c>
       <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s">
         <v>49</v>
-      </c>
-      <c r="K33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -1864,10 +1870,10 @@
         <v>80001</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20400" windowHeight="8490"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -569,50 +569,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 150000   \n成长220s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   \n成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益  50000   \n成长200s   防御+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 150000   \n成长220s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   \n成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益  50000   \n成长200s   血量+9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 150000   \n成长220s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   \n成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收益  50000   \n成长200s 攻+1防+1血+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 150000   \n成长220s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 300000   \n成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>随机获得2-5级\n种子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -629,47 +597,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 1000000  \n成长240s   攻击+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s   防御+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s   血量+27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s 攻+3防+3血+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s   血量+270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s   防御+90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s   攻击+90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s 攻30防30血90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集满100个可获得超级战舰</t>
+    <t>600晶石购买1个战舰零件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长220s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 200000   \n成长240s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长220s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 200000   \n成长240s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长220s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 200000   \n成长240s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长220s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 200000   \n成长240s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s   攻击+30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s   攻击+300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s   防御+30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s   防御+300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s   血量+90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s   血量+900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长240s 攻10防10血30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长240s 攻100防100血300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1133,14 +1133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -1150,7 +1150,7 @@
     <col min="10" max="10" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1158,13 +1158,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>10001</v>
       </c>
@@ -1222,15 +1222,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>10002</v>
       </c>
       <c r="C5">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D5">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1239,21 +1239,21 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>10003</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D6">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1262,13 +1262,13 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>10004</v>
       </c>
@@ -1282,19 +1282,19 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>10005</v>
       </c>
@@ -1308,19 +1308,19 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>18001</v>
       </c>
@@ -1328,13 +1328,13 @@
         <v>300000</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>18002</v>
       </c>
@@ -1345,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>20001</v>
       </c>
@@ -1368,21 +1368,21 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>20002</v>
       </c>
       <c r="C12">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D12">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -1391,21 +1391,21 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>20003</v>
       </c>
       <c r="C13">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D13">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1414,13 +1414,13 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>20004</v>
       </c>
@@ -1434,19 +1434,19 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>20005</v>
       </c>
@@ -1460,19 +1460,19 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>28001</v>
       </c>
@@ -1480,13 +1480,13 @@
         <v>300000</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>28002</v>
       </c>
@@ -1497,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>30001</v>
       </c>
@@ -1520,21 +1520,21 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>30002</v>
       </c>
       <c r="C19">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D19">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1543,21 +1543,21 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>30003</v>
       </c>
       <c r="C20">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D20">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1566,13 +1566,13 @@
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>30004</v>
       </c>
@@ -1586,19 +1586,19 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>30005</v>
       </c>
@@ -1612,19 +1612,19 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>38001</v>
       </c>
@@ -1632,13 +1632,13 @@
         <v>300000</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>38002</v>
       </c>
@@ -1649,13 +1649,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>40001</v>
       </c>
@@ -1678,21 +1678,21 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>40002</v>
       </c>
       <c r="C26">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D26">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1707,21 +1707,21 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>40003</v>
       </c>
       <c r="C27">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D27">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1736,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>40004</v>
       </c>
@@ -1756,25 +1756,25 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>40005</v>
       </c>
@@ -1788,25 +1788,25 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H29">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>48001</v>
       </c>
@@ -1814,13 +1814,13 @@
         <v>300000</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>48002</v>
       </c>
@@ -1831,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>61000</v>
       </c>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>61001</v>
       </c>
@@ -1865,15 +1865,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>80001</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1889,12 +1889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1904,12 +1904,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/物品.xlsx
+++ b/config/data/物品.xlsx
@@ -362,12 +362,168 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+秒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+秒</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>comment</t>
   </si>
@@ -405,10 +561,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>60/60/60/60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,22 +577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>55/55/55/55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50/50/50/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55/55/55/55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50/50/50/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>神器lv1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -565,22 +701,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益  50000   \n成长200s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益  50000   \n成长200s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益  50000   \n成长200s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益  50000   \n成长200s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>随机获得2-5级\n种子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -601,67 +721,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收益 100000   \n成长220s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 200000   \n成长240s   攻击+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 100000   \n成长220s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 200000   \n成长240s   防御+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 100000   \n成长220s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 200000   \n成长240s   血量+9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 100000   \n成长220s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 200000   \n成长240s 攻+1防+1血+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s   攻击+30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s   攻击+300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s   防御+30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s   防御+300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s   血量+90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s   血量+900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 1000000  \n成长240s 攻10防10血30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益 20000000 \n成长240s 攻100防100血300</t>
+    <t>30/30/30/30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/20/20/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  20000   \n成长80s    攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/25/25/25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长100s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长120s   攻击+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长120s   攻击+30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长120s   攻击+300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长120s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长120s   防御+30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长120s   防御+300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长120s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长120s   血量+90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长120s   血量+900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 100000   \n成长120s 攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 1000000  \n成长120s 攻10防10血30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益 20000000 \n成长120s 攻100防100血300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  20000   \n成长80s    防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长100s   防御+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  20000   \n成长80s    血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长100s   血量+9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  20000   \n成长80s  攻+1防+1血+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益  50000   \n成长100s 攻+1防+1血+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1136,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1169,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1190,13 +1338,13 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1207,19 +1355,19 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1230,19 +1378,19 @@
         <v>20000</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1250,22 +1398,22 @@
         <v>10003</v>
       </c>
       <c r="C6">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D6">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1279,7 +1427,7 @@
         <v>1000000</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -1288,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1305,7 +1453,7 @@
         <v>20000000</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -1314,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1325,13 +1473,13 @@
         <v>18001</v>
       </c>
       <c r="C9">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1345,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -1359,19 +1507,19 @@
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1382,19 +1530,19 @@
         <v>20000</v>
       </c>
       <c r="D12">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1402,22 +1550,22 @@
         <v>20003</v>
       </c>
       <c r="C13">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D13">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1431,7 +1579,7 @@
         <v>1000000</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>30</v>
@@ -1440,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1457,7 +1605,7 @@
         <v>20000000</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>300</v>
@@ -1466,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1477,13 +1625,13 @@
         <v>28001</v>
       </c>
       <c r="C16">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -1497,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -1511,19 +1659,19 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -1534,19 +1682,19 @@
         <v>20000</v>
       </c>
       <c r="D19">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -1554,22 +1702,22 @@
         <v>30003</v>
       </c>
       <c r="C20">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D20">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -1583,7 +1731,7 @@
         <v>1000000</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>90</v>
@@ -1592,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -1609,7 +1757,7 @@
         <v>20000000</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H22">
         <v>900</v>
@@ -1618,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -1629,13 +1777,13 @@
         <v>38001</v>
       </c>
       <c r="C23">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
@@ -1649,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -1663,10 +1811,10 @@
         <v>10000</v>
       </c>
       <c r="D25">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1678,10 +1826,10 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -1692,10 +1840,10 @@
         <v>20000</v>
       </c>
       <c r="D26">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1707,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
@@ -1718,13 +1866,13 @@
         <v>40003</v>
       </c>
       <c r="C27">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D27">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1736,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
@@ -1753,7 +1901,7 @@
         <v>1000000</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -1768,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -1785,7 +1933,7 @@
         <v>20000000</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -1800,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -1811,13 +1959,13 @@
         <v>48001</v>
       </c>
       <c r="C30">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -1831,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -1848,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
@@ -1859,10 +2007,10 @@
         <v>61001</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -1870,10 +2018,10 @@
         <v>80001</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
